--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H2">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I2">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J2">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.1438088117511111</v>
+        <v>0.1123680128946667</v>
       </c>
       <c r="R2">
-        <v>1.29427930576</v>
+        <v>1.011312116052</v>
       </c>
       <c r="S2">
-        <v>0.003401797690246116</v>
+        <v>0.002820787956731757</v>
       </c>
       <c r="T2">
-        <v>0.003574222558500497</v>
+        <v>0.002832372826046237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H3">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I3">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J3">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>0.3392183948191111</v>
+        <v>0.2755663610093333</v>
       </c>
       <c r="R3">
-        <v>3.052965553372</v>
+        <v>2.480097249084</v>
       </c>
       <c r="S3">
-        <v>0.008024211715077547</v>
+        <v>0.006917576028902233</v>
       </c>
       <c r="T3">
-        <v>0.008430930095710406</v>
+        <v>0.006945986251682914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>235.023953</v>
       </c>
       <c r="I4">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J4">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>10.37134590816444</v>
+        <v>10.77731061631311</v>
       </c>
       <c r="R4">
-        <v>93.34211317347999</v>
+        <v>96.995795546818</v>
       </c>
       <c r="S4">
-        <v>0.2453342053628693</v>
+        <v>0.2705441451647868</v>
       </c>
       <c r="T4">
-        <v>0.2577693122945005</v>
+        <v>0.2716552597234164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>235.023953</v>
       </c>
       <c r="I5">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J5">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>24.46408720190345</v>
+        <v>26.42980143102289</v>
       </c>
       <c r="R5">
-        <v>220.176784817131</v>
+        <v>237.868212879206</v>
       </c>
       <c r="S5">
-        <v>0.578698024996175</v>
+        <v>0.6634705344956726</v>
       </c>
       <c r="T5">
-        <v>0.6080301428364386</v>
+        <v>0.6661953828550814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H6">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I6">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J6">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N6">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q6">
-        <v>0.12863734388</v>
+        <v>0.3208907000491111</v>
       </c>
       <c r="R6">
-        <v>1.15773609492</v>
+        <v>2.888016300442</v>
       </c>
       <c r="S6">
-        <v>0.003042916591562744</v>
+        <v>0.008055358449510476</v>
       </c>
       <c r="T6">
-        <v>0.003197151069972105</v>
+        <v>0.008088441501604543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H7">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I7">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J7">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N7">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O7">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P7">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q7">
-        <v>0.303431707511</v>
+        <v>0.786938206134889</v>
       </c>
       <c r="R7">
-        <v>2.730885367599</v>
+        <v>7.082443855214001</v>
       </c>
       <c r="S7">
-        <v>0.007177677565021531</v>
+        <v>0.01975460593610573</v>
       </c>
       <c r="T7">
-        <v>0.007541488179647389</v>
+        <v>0.01983573735457435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H8">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I8">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J8">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N8">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q8">
-        <v>1.821505498933333</v>
+        <v>0.1415854653803334</v>
       </c>
       <c r="R8">
-        <v>10.9290329936</v>
+        <v>0.8495127922820002</v>
       </c>
       <c r="S8">
-        <v>0.04308771572194106</v>
+        <v>0.003554237236245204</v>
       </c>
       <c r="T8">
-        <v>0.03018111785800646</v>
+        <v>0.002379222902649847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H9">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I9">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J9">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N9">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O9">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P9">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q9">
-        <v>4.296594652153334</v>
+        <v>0.3472179534156667</v>
       </c>
       <c r="R9">
-        <v>25.77956791292</v>
+        <v>2.083307720494</v>
       </c>
       <c r="S9">
-        <v>0.1016359539143894</v>
+        <v>0.008716254707414585</v>
       </c>
       <c r="T9">
-        <v>0.07119167614956848</v>
+        <v>0.005834701356941057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H10">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I10">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J10">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N10">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P10">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q10">
-        <v>0.1207949783911111</v>
+        <v>0.1865403147704444</v>
       </c>
       <c r="R10">
-        <v>1.08715480552</v>
+        <v>1.678862832934</v>
       </c>
       <c r="S10">
-        <v>0.002857405422383906</v>
+        <v>0.004682744313033904</v>
       </c>
       <c r="T10">
-        <v>0.00300223700802363</v>
+        <v>0.00470197616659105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H11">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I11">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J11">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N11">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O11">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P11">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q11">
-        <v>0.2849330174771111</v>
+        <v>0.4574632441975556</v>
       </c>
       <c r="R11">
-        <v>2.564397157294</v>
+        <v>4.117169197778</v>
       </c>
       <c r="S11">
-        <v>0.006740091020333487</v>
+        <v>0.01148375571159673</v>
       </c>
       <c r="T11">
-        <v>0.00708172194963177</v>
+        <v>0.01153091906141208</v>
       </c>
     </row>
   </sheetData>
